--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_protocol_tables_test_ni_protocol_tables_connection_import_policy_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_protocol_tables_test_ni_protocol_tables_connection_import_policy_logs.xlsx
@@ -512,15 +512,78 @@
                         &lt;/routing-policy&gt;
                     &lt;/filter&gt;
 -------------------
-</t>
+                    &lt;filter&gt;
+                        &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+                        &lt;network-instance&gt;
+                        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+                        &lt;/network-instance&gt;
+                        &lt;/network-instances&gt;
+                    &lt;/filter&gt;
+                    </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:9e933bac-8e13-4bf1-9090-fcf292084ca8"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:82ce46c6-c19e-4216-a235-b11b16b07cd8"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 -------------------
+&lt;rpc-reply message-id="urn:uuid:f33e69c9-4223-41e9-b2ef-c85a1509f2f7"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+            &lt;name&gt;22&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
+            &lt;/config&gt;
+            &lt;ospfv2&gt;
+              &lt;global&gt;
+                &lt;config&gt;
+                  &lt;router-id&gt;172.16.1.3&lt;/router-id&gt;
+                &lt;/config&gt;
+              &lt;/global&gt;
+            &lt;/ospfv2&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
 </t>
         </is>
       </c>
@@ -538,25 +601,128 @@
             &lt;config&gt;
               &lt;name&gt;REDISTRIBUTION_POLICY&lt;/name&gt;
             &lt;/config&gt;
+            &lt;statements&gt;
+              &lt;statement&gt;
+               &lt;name&gt;1&lt;/name&gt;
+               &lt;config&gt;
+                &lt;name&gt;1&lt;/name&gt;
+               &lt;/config&gt;
+              &lt;/statement&gt;
+            &lt;/statements&gt;
           &lt;/policy-definition&gt;
         &lt;/policy-definitions&gt;
       &lt;/routing-policy&gt;
     &lt;/config&gt;
   &lt;/edit-config&gt; 
 -------------------
-</t>
+  &lt;edit-config&gt;
+    &lt;target&gt;
+      &lt;candidate/&gt;
+    &lt;/target&gt;
+    &lt;config&gt;
+      &lt;network-instances xmlns="http://openconfig.net/yang/network-instance"&gt;
+        &lt;network-instance&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;config&gt;
+            &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+            &lt;type xmlns:oc-ni-types="http://openconfig.net/yang/network-instance-types"&gt;oc-ni-types:L3VRF&lt;/type&gt;
+          &lt;/config&gt;
+          &lt;table-connections&gt;
+            &lt;table-connection&gt;
+              &lt;src-protocol xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/src-protocol&gt;
+              &lt;dst-protocol xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/dst-protocol&gt;
+              &lt;address-family xmlns:oc-types="http://openconfig.net/yang/openconfig-types"&gt;oc-types:IPV4&lt;/address-family&gt;
+              &lt;config&gt;
+                &lt;src-protocol xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/src-protocol&gt;
+                &lt;address-family xmlns:oc-types="http://openconfig.net/yang/openconfig-types"&gt;oc-types:IPV4&lt;/address-family&gt;
+                &lt;dst-protocol xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/dst-protocol&gt;
+                &lt;import-policy&gt;REDISTRIBUTION_POLICY&lt;/import-policy&gt;
+              &lt;/config&gt;
+            &lt;/table-connection&gt;
+          &lt;/table-connections&gt;
+          &lt;tables&gt;
+            &lt;table&gt;
+              &lt;protocol xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/protocol&gt;
+              &lt;address-family xmlns:oc-types="http://openconfig.net/yang/openconfig-types"&gt;oc-types:IPV4&lt;/address-family&gt;
+              &lt;config&gt;
+                &lt;protocol xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/protocol&gt;
+                &lt;address-family xmlns:oc-types="http://openconfig.net/yang/openconfig-types"&gt;oc-types:IPV4&lt;/address-family&gt;
+              &lt;/config&gt;
+            &lt;/table&gt;
+              &lt;table&gt;
+              &lt;protocol xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/protocol&gt;
+              &lt;address-family xmlns:oc-types="http://openconfig.net/yang/openconfig-types"&gt;oc-types:IPV4&lt;/address-family&gt;
+              &lt;config&gt;
+                &lt;protocol xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/protocol&gt;
+                &lt;address-family xmlns:oc-types="http://openconfig.net/yang/openconfig-types"&gt;oc-types:IPV4&lt;/address-family&gt;
+              &lt;/config&gt;
+            &lt;/table&gt;
+          &lt;/tables&gt;
+          &lt;protocols&gt;
+            &lt;protocol&gt;
+              &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;OSPF_1&lt;/name&gt;
+              &lt;config&gt;
+                &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+                &lt;name&gt;OSPF_1&lt;/name&gt;
+              &lt;/config&gt;
+            &lt;/protocol&gt;
+            &lt;protocol&gt;
+                &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/identifier&gt;
+                &lt;name&gt;BGP_6500&lt;/name&gt;
+              &lt;config&gt;
+              &lt;identifier xmlns:oc-pol-types="http://openconfig.net/yang/policy-types"&gt;oc-pol-types:BGP&lt;/identifier&gt;
+              &lt;name&gt;BGP_6500&lt;/name&gt;
+              &lt;/config&gt;
+            &lt;/protocol&gt;
+          &lt;/protocols&gt;
+        &lt;/network-instance&gt;
+      &lt;/network-instances&gt;
+    &lt;/config&gt;
+  &lt;/edit-config&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:5c091f5d-6086-48d1-ac68-a36dc922c905"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:6542c53f-373e-421b-8ddc-b62180dd8a33" nc-ext:flow-id="257"&gt;
+  &lt;ok/&gt;
+&lt;/rpc-reply&gt;
 -------------------
 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:dd7f8413-84bb-44d1-91a6-3f80c07c6ad3"&gt;
+  &lt;data&gt;
+    &lt;routing-policy&gt;
+      &lt;policy-definitions&gt;
+        &lt;policy-definition&gt;
+          &lt;name&gt;REDISTRIBUTION_POLICY&lt;/name&gt;
+          &lt;config&gt;
+            &lt;name&gt;REDISTRIBUTION_POLICY&lt;/name&gt;
+          &lt;/config&gt;
+          &lt;statements&gt;
+            &lt;statement&gt;
+              &lt;name&gt;1&lt;/name&gt;
+              &lt;config&gt;
+                &lt;name&gt;1&lt;/name&gt;
+              &lt;/config&gt;
+              &lt;actions&gt;
+                &lt;config&gt;
+                  &lt;policy-result&gt;ACCEPT_ROUTE&lt;/policy-result&gt;
+                &lt;/config&gt;
+              &lt;/actions&gt;
+            &lt;/statement&gt;
+          &lt;/statements&gt;
+        &lt;/policy-definition&gt;
+      &lt;/policy-definitions&gt;
+    &lt;/routing-policy&gt;
+  &lt;/data&gt;
+&lt;/rpc-reply&gt;
 -------------------
 </t>
         </is>
